--- a/tmp/ar_matakuliah.xlsx
+++ b/tmp/ar_matakuliah.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ar_matakuliah" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>TIF-101</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Semester</t>
+  </si>
+  <si>
+    <t>Format Upload Matakuliah, Silakan Isi Data Matakuliah Mulai Baris Ke 3</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +406,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -519,6 +528,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -564,8 +588,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,117 +927,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
